--- a/src/Excel/entregable1/CambioTasaCuentaAhorro.xlsx
+++ b/src/Excel/entregable1/CambioTasaCuentaAhorro.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC47378E-BB78-4C3B-A451-D98B2BF746FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D4CD631-54F3-4B83-8D34-A57BCF0E091A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2670" yWindow="1960" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CambioTasaCuentaAhorro" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>usuario</t>
   </si>
@@ -33,9 +33,6 @@
     <t>contraseña</t>
   </si>
   <si>
-    <t>cuenta</t>
-  </si>
-  <si>
     <t>fijo</t>
   </si>
   <si>
@@ -45,9 +42,6 @@
     <t>123456</t>
   </si>
   <si>
-    <t>1008999577</t>
-  </si>
-  <si>
     <t>12</t>
   </si>
   <si>
@@ -66,28 +60,16 @@
     <t/>
   </si>
   <si>
-    <t>5 mar. 2023, 20:20:40</t>
-  </si>
-  <si>
-    <t>6 mar. 2023, 12:06:14</t>
-  </si>
-  <si>
-    <t>6 mar. 2023, 13:41:44</t>
-  </si>
-  <si>
-    <t>6 mar. 2023, 15:03:44</t>
-  </si>
-  <si>
-    <t>6 mar. 2023, 15:28:38</t>
-  </si>
-  <si>
-    <t>6 mar. 2023, 15:30:32</t>
-  </si>
-  <si>
-    <t>6 mar. 2023, 15:32:46</t>
-  </si>
-  <si>
-    <t>6 mar. 2023, 15:35:09</t>
+    <t>cuenta ahorro</t>
+  </si>
+  <si>
+    <t>21 abr. 2023, 00:25:13</t>
+  </si>
+  <si>
+    <t>1010605985</t>
+  </si>
+  <si>
+    <t>21 abr. 2023, 00:28:46</t>
   </si>
 </sst>
 </file>
@@ -424,14 +406,14 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:G1"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="15.1796875" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="10.08984375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.81640625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.6328125" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="10.7265625" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="18.7265625" collapsed="true"/>
   </cols>
@@ -444,42 +426,42 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="E1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/src/Excel/entregable1/CambioTasaCuentaAhorro.xlsx
+++ b/src/Excel/entregable1/CambioTasaCuentaAhorro.xlsx
@@ -3,21 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D4CD631-54F3-4B83-8D34-A57BCF0E091A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF23962-68AA-45D1-9BB7-C78475F7DB3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CambioTasaCuentaAhorro" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>usuario</t>
   </si>
@@ -36,47 +36,49 @@
     <t>fijo</t>
   </si>
   <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>Transaccion</t>
+  </si>
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>cuenta ahorro</t>
+  </si>
+  <si>
+    <t>usuario apro</t>
+  </si>
+  <si>
+    <t>SCISNEROSC1</t>
+  </si>
+  <si>
     <t>SCISNEROSCSUP1</t>
   </si>
   <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>Estado</t>
-  </si>
-  <si>
-    <t>Transaccion</t>
-  </si>
-  <si>
-    <t>Fecha</t>
-  </si>
-  <si>
-    <t>FAILED</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>cuenta ahorro</t>
-  </si>
-  <si>
-    <t>21 abr. 2023, 00:25:13</t>
-  </si>
-  <si>
-    <t>1010605985</t>
-  </si>
-  <si>
-    <t>21 abr. 2023, 00:28:46</t>
+    <t>1010800931</t>
+  </si>
+  <si>
+    <t>AAACT231164H4XGB2</t>
+  </si>
+  <si>
+    <t>PASSED</t>
+  </si>
+  <si>
+    <t>26 abr. 2023, 10:36:14</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -403,22 +405,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.1796875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.08984375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.6328125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="10.7265625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="18.7265625" collapsed="true"/>
+    <col min="1" max="1" width="15.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.6328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="18.7265625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -426,42 +429,48 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
+      <c r="H2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/src/Excel/entregable1/CambioTasaCuentaAhorro.xlsx
+++ b/src/Excel/entregable1/CambioTasaCuentaAhorro.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF23962-68AA-45D1-9BB7-C78475F7DB3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04829545-577C-489E-B724-57241D941209}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>usuario</t>
   </si>
@@ -39,9 +39,6 @@
     <t>123456</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
     <t>Estado</t>
   </si>
   <si>
@@ -63,9 +60,6 @@
     <t>SCISNEROSCSUP1</t>
   </si>
   <si>
-    <t>1010800931</t>
-  </si>
-  <si>
     <t>AAACT231164H4XGB2</t>
   </si>
   <si>
@@ -73,12 +67,31 @@
   </si>
   <si>
     <t>26 abr. 2023, 10:36:14</t>
+  </si>
+  <si>
+    <t>1010800907</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>AAACT23123LZ1B0DD</t>
+  </si>
+  <si>
+    <t>FAILED</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>3 may. 2023, 00:07:45</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -408,17 +421,17 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.6328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="10.7265625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="18.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.1796875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.08984375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.6328125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="15.1796875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.7265625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="18.7265625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
@@ -429,48 +442,48 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/src/Excel/entregable1/CambioTasaCuentaAhorro.xlsx
+++ b/src/Excel/entregable1/CambioTasaCuentaAhorro.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04829545-577C-489E-B724-57241D941209}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40221F20-8023-493F-BCA8-D921C6762A4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>usuario</t>
   </si>
@@ -33,9 +33,6 @@
     <t>contraseña</t>
   </si>
   <si>
-    <t>fijo</t>
-  </si>
-  <si>
     <t>123456</t>
   </si>
   <si>
@@ -60,24 +57,12 @@
     <t>SCISNEROSCSUP1</t>
   </si>
   <si>
-    <t>AAACT231164H4XGB2</t>
-  </si>
-  <si>
-    <t>PASSED</t>
-  </si>
-  <si>
-    <t>26 abr. 2023, 10:36:14</t>
-  </si>
-  <si>
     <t>1010800907</t>
   </si>
   <si>
     <t>11</t>
   </si>
   <si>
-    <t>AAACT23123LZ1B0DD</t>
-  </si>
-  <si>
     <t>FAILED</t>
   </si>
   <si>
@@ -85,13 +70,15 @@
   </si>
   <si>
     <t>3 may. 2023, 00:07:45</t>
+  </si>
+  <si>
+    <t>tasa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -421,17 +408,17 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.1796875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.08984375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.6328125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="15.1796875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.7265625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="18.7265625" collapsed="true"/>
+    <col min="1" max="1" width="15.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.6328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="18.7265625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
@@ -442,48 +429,48 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="F1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
         <v>14</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/src/Excel/entregable1/CambioTasaCuentaAhorro.xlsx
+++ b/src/Excel/entregable1/CambioTasaCuentaAhorro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40221F20-8023-493F-BCA8-D921C6762A4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{763272AF-4513-49E7-AAAC-88046503E50C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,9 +57,6 @@
     <t>SCISNEROSCSUP1</t>
   </si>
   <si>
-    <t>1010800907</t>
-  </si>
-  <si>
     <t>11</t>
   </si>
   <si>
@@ -69,10 +66,13 @@
     <t/>
   </si>
   <si>
-    <t>3 may. 2023, 00:07:45</t>
-  </si>
-  <si>
     <t>tasa</t>
+  </si>
+  <si>
+    <t>19 may. 2023, 11:07:56</t>
+  </si>
+  <si>
+    <t>1010802788</t>
   </si>
 </sst>
 </file>
@@ -408,7 +408,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -432,7 +432,7 @@
         <v>6</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>7</v>
@@ -455,19 +455,19 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
       </c>
       <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
         <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
       </c>
       <c r="H2" t="s">
         <v>14</v>

--- a/src/Excel/entregable1/CambioTasaCuentaAhorro.xlsx
+++ b/src/Excel/entregable1/CambioTasaCuentaAhorro.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{763272AF-4513-49E7-AAAC-88046503E50C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB11DA8-054F-46B7-8386-6182FDDFE865}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>usuario</t>
   </si>
@@ -57,9 +57,6 @@
     <t>SCISNEROSCSUP1</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
     <t>FAILED</t>
   </si>
   <si>
@@ -69,16 +66,29 @@
     <t>tasa</t>
   </si>
   <si>
-    <t>19 may. 2023, 11:07:56</t>
-  </si>
-  <si>
-    <t>1010802788</t>
+    <t>13</t>
+  </si>
+  <si>
+    <t>24 may. 2023, 17:10:06</t>
+  </si>
+  <si>
+    <t>1010374746</t>
+  </si>
+  <si>
+    <t>AAACT23145WBWY43G</t>
+  </si>
+  <si>
+    <t>PASSED</t>
+  </si>
+  <si>
+    <t>25 may. 2023, 15:18:48</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -408,17 +418,17 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.6328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="10.7265625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="18.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.1796875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.08984375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.6328125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="15.1796875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.7265625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="18.7265625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
@@ -432,7 +442,7 @@
         <v>6</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>7</v>
@@ -458,19 +468,19 @@
         <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/src/Excel/entregable1/CambioTasaCuentaAhorro.xlsx
+++ b/src/Excel/entregable1/CambioTasaCuentaAhorro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB11DA8-054F-46B7-8386-6182FDDFE865}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2743B39C-0C3D-4B9C-A73E-D155FA40B8B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>usuario</t>
   </si>
@@ -51,30 +51,15 @@
     <t>usuario apro</t>
   </si>
   <si>
-    <t>SCISNEROSC1</t>
-  </si>
-  <si>
     <t>SCISNEROSCSUP1</t>
   </si>
   <si>
-    <t>FAILED</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>tasa</t>
   </si>
   <si>
     <t>13</t>
   </si>
   <si>
-    <t>24 may. 2023, 17:10:06</t>
-  </si>
-  <si>
-    <t>1010374746</t>
-  </si>
-  <si>
     <t>AAACT23145WBWY43G</t>
   </si>
   <si>
@@ -82,6 +67,18 @@
   </si>
   <si>
     <t>25 may. 2023, 15:18:48</t>
+  </si>
+  <si>
+    <t>jtangt</t>
+  </si>
+  <si>
+    <t>1010826124</t>
+  </si>
+  <si>
+    <t>AAACT2318450ZF62H</t>
+  </si>
+  <si>
+    <t>3 jul. 2023, 11:29:15</t>
   </si>
 </sst>
 </file>
@@ -418,7 +415,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -427,7 +424,7 @@
     <col min="2" max="2" bestFit="true" customWidth="true" width="10.08984375" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="12.6328125" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="15.1796875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.7265625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="20.54296875" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="18.7265625" collapsed="true"/>
   </cols>
   <sheetData>
@@ -442,7 +439,7 @@
         <v>6</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>7</v>
@@ -459,7 +456,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -468,19 +465,19 @@
         <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
         <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
